--- a/public/sample_uploads/investor_advisors.xlsx
+++ b/public/sample_uploads/investor_advisors.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Email *</t>
   </si>
   <si>
-    <t xml:space="preserve">Investor *</t>
+    <t xml:space="preserve">Stakeholder *</t>
   </si>
   <si>
     <t xml:space="preserve">Add To</t>
@@ -191,16 +191,20 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,143 +465,143 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
